--- a/results/three_way_quicksort.xlsx
+++ b/results/three_way_quicksort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://her169626-my.sharepoint.com/personal/f_kretke_otto-hahn-gymnasium_de/Documents/Schule/Facharbeit/facharbeit/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_AD4DB114E441178AC67DF4526E55E246693EDF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{281D4364-C6C6-4387-A941-21E4D6C5B03F}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_AD4DB114E441178AC67DF4526E55E246693EDF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46FF3B7A-3CB2-46E1-B8EC-5C8B13288FEF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="31875" windowHeight="17145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1279,6 +1279,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1545,12 +1549,16 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">

--- a/results/three_way_quicksort.xlsx
+++ b/results/three_way_quicksort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://her169626-my.sharepoint.com/personal/f_kretke_otto-hahn-gymnasium_de/Documents/Schule/Facharbeit/facharbeit/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_AD4DB114E441178AC67DF4526E55E246693EDF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46FF3B7A-3CB2-46E1-B8EC-5C8B13288FEF}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="11_AD4DB114E441178AC67DF4526E55E246693EDF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F04B6F3-C2AA-4A6D-A249-4152E5132585}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="31875" windowHeight="17145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="4455" windowWidth="31875" windowHeight="17145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -334,31 +334,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4910</c:v>
+                  <c:v>5900</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7840</c:v>
+                  <c:v>9900</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18280</c:v>
+                  <c:v>17640</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32970</c:v>
+                  <c:v>32910</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>78070</c:v>
+                  <c:v>61960</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>147600</c:v>
+                  <c:v>123790</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>338340</c:v>
+                  <c:v>233340</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>660710</c:v>
+                  <c:v>463230</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1500310</c:v>
+                  <c:v>916310</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1549,7 +1549,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="B3" sqref="B3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1627,31 +1627,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4910</v>
+        <v>5900</v>
       </c>
       <c r="C3">
-        <v>7840</v>
+        <v>9900</v>
       </c>
       <c r="D3">
-        <v>18280</v>
+        <v>17640</v>
       </c>
       <c r="E3">
-        <v>32970</v>
+        <v>32910</v>
       </c>
       <c r="F3">
-        <v>78070</v>
+        <v>61960</v>
       </c>
       <c r="G3">
-        <v>147600</v>
+        <v>123790</v>
       </c>
       <c r="H3">
-        <v>338340</v>
+        <v>233340</v>
       </c>
       <c r="I3">
-        <v>660710</v>
+        <v>463230</v>
       </c>
       <c r="J3">
-        <v>1500310</v>
+        <v>916310</v>
       </c>
     </row>
   </sheetData>
